--- a/Employee_Reports35/Mark Jayson Rosima Q0265.xlsx
+++ b/Employee_Reports35/Mark Jayson Rosima Q0265.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="4" t="n">
-        <v>-70</v>
+        <v>-71</v>
       </c>
       <c r="I10" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="4" t="inlineStr">
@@ -965,11 +965,11 @@
         </is>
       </c>
       <c r="H11" s="4" t="n">
-        <v>-49</v>
+        <v>-50</v>
       </c>
       <c r="I11" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="4" t="inlineStr">
@@ -1014,11 +1014,11 @@
         </is>
       </c>
       <c r="H12" s="4" t="n">
-        <v>-153</v>
+        <v>-154</v>
       </c>
       <c r="I12" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="4" t="inlineStr">
@@ -1063,11 +1063,11 @@
         </is>
       </c>
       <c r="H13" s="4" t="n">
-        <v>-78</v>
+        <v>-79</v>
       </c>
       <c r="I13" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="4" t="inlineStr">
@@ -1100,11 +1100,11 @@
         </is>
       </c>
       <c r="H14" s="4" t="n">
-        <v>-78</v>
+        <v>-79</v>
       </c>
       <c r="I14" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="4" t="inlineStr">
@@ -1149,11 +1149,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1186,11 +1186,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1223,11 +1223,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">

--- a/Employee_Reports35/Mark Jayson Rosima Q0265.xlsx
+++ b/Employee_Reports35/Mark Jayson Rosima Q0265.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="4" t="n">
-        <v>-71</v>
+        <v>-72</v>
       </c>
       <c r="I10" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="4" t="inlineStr">
@@ -965,11 +965,11 @@
         </is>
       </c>
       <c r="H11" s="4" t="n">
-        <v>-50</v>
+        <v>-51</v>
       </c>
       <c r="I11" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="4" t="inlineStr">
@@ -1014,11 +1014,11 @@
         </is>
       </c>
       <c r="H12" s="4" t="n">
-        <v>-154</v>
+        <v>-155</v>
       </c>
       <c r="I12" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="4" t="inlineStr">
@@ -1063,11 +1063,11 @@
         </is>
       </c>
       <c r="H13" s="4" t="n">
-        <v>-79</v>
+        <v>-80</v>
       </c>
       <c r="I13" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="4" t="inlineStr">
@@ -1100,11 +1100,11 @@
         </is>
       </c>
       <c r="H14" s="4" t="n">
-        <v>-79</v>
+        <v>-80</v>
       </c>
       <c r="I14" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="4" t="inlineStr">
@@ -1149,11 +1149,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1186,11 +1186,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1223,11 +1223,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
